--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4549493333333333</v>
+        <v>0.6220463333333334</v>
       </c>
       <c r="H2">
-        <v>1.364848</v>
+        <v>1.866139</v>
       </c>
       <c r="I2">
-        <v>0.004035600264670243</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="J2">
-        <v>0.004035600264670242</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03686966666666666</v>
+        <v>1.771067666666666</v>
       </c>
       <c r="N2">
-        <v>0.110609</v>
+        <v>5.313203</v>
       </c>
       <c r="O2">
-        <v>0.01782545528970857</v>
+        <v>0.9584282089297276</v>
       </c>
       <c r="P2">
-        <v>0.01782545528970857</v>
+        <v>0.9584282089297276</v>
       </c>
       <c r="Q2">
-        <v>0.01677383027022222</v>
+        <v>1.101686148135222</v>
       </c>
       <c r="R2">
-        <v>0.150964472432</v>
+        <v>9.915175333216999</v>
       </c>
       <c r="S2">
-        <v>7.193641208501547E-05</v>
+        <v>0.004842555519690661</v>
       </c>
       <c r="T2">
-        <v>7.193641208501545E-05</v>
+        <v>0.004842555519690661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4549493333333333</v>
+        <v>0.6220463333333334</v>
       </c>
       <c r="H3">
-        <v>1.364848</v>
+        <v>1.866139</v>
       </c>
       <c r="I3">
-        <v>0.004035600264670243</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="J3">
-        <v>0.004035600264670242</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.771067666666666</v>
+        <v>0.05687433333333333</v>
       </c>
       <c r="N3">
-        <v>5.313203</v>
+        <v>0.170623</v>
       </c>
       <c r="O3">
-        <v>0.8562618098133555</v>
+        <v>0.03077802528761218</v>
       </c>
       <c r="P3">
-        <v>0.8562618098133555</v>
+        <v>0.03077802528761218</v>
       </c>
       <c r="Q3">
-        <v>0.805746054238222</v>
+        <v>0.03537847051077778</v>
       </c>
       <c r="R3">
-        <v>7.251714488143999</v>
+        <v>0.318406234597</v>
       </c>
       <c r="S3">
-        <v>0.003455530386309798</v>
+        <v>0.0001555090875383793</v>
       </c>
       <c r="T3">
-        <v>0.003455530386309798</v>
+        <v>0.0001555090875383793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4549493333333333</v>
+        <v>0.6220463333333334</v>
       </c>
       <c r="H4">
-        <v>1.364848</v>
+        <v>1.866139</v>
       </c>
       <c r="I4">
-        <v>0.004035600264670243</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="J4">
-        <v>0.004035600264670242</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2222983333333333</v>
+        <v>0.01994566666666667</v>
       </c>
       <c r="N4">
-        <v>0.666895</v>
+        <v>0.059837</v>
       </c>
       <c r="O4">
-        <v>0.1074750427671365</v>
+        <v>0.01079376578266031</v>
       </c>
       <c r="P4">
-        <v>0.1074750427671365</v>
+        <v>0.01079376578266031</v>
       </c>
       <c r="Q4">
-        <v>0.1011344785511111</v>
+        <v>0.01240712881588889</v>
       </c>
       <c r="R4">
-        <v>0.9102103069599999</v>
+        <v>0.111664159343</v>
       </c>
       <c r="S4">
-        <v>0.0004337263110365016</v>
+        <v>5.45365939588098E-05</v>
       </c>
       <c r="T4">
-        <v>0.0004337263110365015</v>
+        <v>5.45365939588098E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4549493333333333</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H5">
-        <v>1.364848</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I5">
-        <v>0.004035600264670243</v>
+        <v>0.1592492032139157</v>
       </c>
       <c r="J5">
-        <v>0.004035600264670242</v>
+        <v>0.1592492032139158</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.038136</v>
+        <v>1.771067666666666</v>
       </c>
       <c r="N5">
-        <v>0.114408</v>
+        <v>5.313203</v>
       </c>
       <c r="O5">
-        <v>0.01843769212979936</v>
+        <v>0.9584282089297276</v>
       </c>
       <c r="P5">
-        <v>0.01843769212979936</v>
+        <v>0.9584282089297276</v>
       </c>
       <c r="Q5">
-        <v>0.01734994777599999</v>
+        <v>34.72323151906311</v>
       </c>
       <c r="R5">
-        <v>0.156149529984</v>
+        <v>312.509083671568</v>
       </c>
       <c r="S5">
-        <v>7.440715523892677E-05</v>
+        <v>0.1526289286097995</v>
       </c>
       <c r="T5">
-        <v>7.440715523892674E-05</v>
+        <v>0.1526289286097995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.60581866666666</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H6">
-        <v>58.81745599999999</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I6">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139157</v>
       </c>
       <c r="J6">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139158</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03686966666666666</v>
+        <v>0.05687433333333333</v>
       </c>
       <c r="N6">
-        <v>0.110609</v>
+        <v>0.170623</v>
       </c>
       <c r="O6">
-        <v>0.01782545528970857</v>
+        <v>0.03077802528761218</v>
       </c>
       <c r="P6">
-        <v>0.01782545528970857</v>
+        <v>0.03077802528761218</v>
       </c>
       <c r="Q6">
-        <v>0.722859998967111</v>
+        <v>1.115067866120889</v>
       </c>
       <c r="R6">
-        <v>6.505739990703998</v>
+        <v>10.035610795088</v>
       </c>
       <c r="S6">
-        <v>0.003100064441321132</v>
+        <v>0.00490137600354999</v>
       </c>
       <c r="T6">
-        <v>0.003100064441321132</v>
+        <v>0.00490137600354999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.60581866666666</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H7">
-        <v>58.81745599999999</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I7">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139157</v>
       </c>
       <c r="J7">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139158</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.771067666666666</v>
+        <v>0.01994566666666667</v>
       </c>
       <c r="N7">
-        <v>5.313203</v>
+        <v>0.059837</v>
       </c>
       <c r="O7">
-        <v>0.8562618098133555</v>
+        <v>0.01079376578266031</v>
       </c>
       <c r="P7">
-        <v>0.8562618098133555</v>
+        <v>0.01079376578266031</v>
       </c>
       <c r="Q7">
-        <v>34.72323151906311</v>
+        <v>0.3910511238524444</v>
       </c>
       <c r="R7">
-        <v>312.509083671568</v>
+        <v>3.519460114672</v>
       </c>
       <c r="S7">
-        <v>0.1489143893337863</v>
+        <v>0.001718898600566282</v>
       </c>
       <c r="T7">
-        <v>0.1489143893337863</v>
+        <v>0.001718898600566282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.60581866666666</v>
+        <v>1.570446666666667</v>
       </c>
       <c r="H8">
-        <v>58.81745599999999</v>
+        <v>4.71134</v>
       </c>
       <c r="I8">
-        <v>0.1739122165990867</v>
+        <v>0.01275602843261105</v>
       </c>
       <c r="J8">
-        <v>0.1739122165990867</v>
+        <v>0.01275602843261106</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2222983333333333</v>
+        <v>1.771067666666666</v>
       </c>
       <c r="N8">
-        <v>0.666895</v>
+        <v>5.313203</v>
       </c>
       <c r="O8">
-        <v>0.1074750427671365</v>
+        <v>0.9584282089297276</v>
       </c>
       <c r="P8">
-        <v>0.1074750427671365</v>
+        <v>0.9584282089297276</v>
       </c>
       <c r="Q8">
-        <v>4.358340813235555</v>
+        <v>2.781367313557777</v>
       </c>
       <c r="R8">
-        <v>39.22506731911999</v>
+        <v>25.03230582202</v>
       </c>
       <c r="S8">
-        <v>0.01869122291671435</v>
+        <v>0.01222573748372409</v>
       </c>
       <c r="T8">
-        <v>0.01869122291671434</v>
+        <v>0.01222573748372409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.60581866666666</v>
+        <v>1.570446666666667</v>
       </c>
       <c r="H9">
-        <v>58.81745599999999</v>
+        <v>4.71134</v>
       </c>
       <c r="I9">
-        <v>0.1739122165990867</v>
+        <v>0.01275602843261105</v>
       </c>
       <c r="J9">
-        <v>0.1739122165990867</v>
+        <v>0.01275602843261106</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.038136</v>
+        <v>0.05687433333333333</v>
       </c>
       <c r="N9">
-        <v>0.114408</v>
+        <v>0.170623</v>
       </c>
       <c r="O9">
-        <v>0.01843769212979936</v>
+        <v>0.03077802528761218</v>
       </c>
       <c r="P9">
-        <v>0.01843769212979936</v>
+        <v>0.03077802528761218</v>
       </c>
       <c r="Q9">
-        <v>0.7476875006719998</v>
+        <v>0.08931810720222222</v>
       </c>
       <c r="R9">
-        <v>6.729187506047999</v>
+        <v>0.80386296482</v>
       </c>
       <c r="S9">
-        <v>0.003206539907264944</v>
+        <v>0.000392605365668403</v>
       </c>
       <c r="T9">
-        <v>0.003206539907264943</v>
+        <v>0.000392605365668403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.381113666666667</v>
+        <v>1.570446666666667</v>
       </c>
       <c r="H10">
-        <v>4.143341</v>
+        <v>4.71134</v>
       </c>
       <c r="I10">
-        <v>0.01225108439637166</v>
+        <v>0.01275602843261105</v>
       </c>
       <c r="J10">
-        <v>0.01225108439637166</v>
+        <v>0.01275602843261106</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,33 +1051,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03686966666666666</v>
+        <v>0.01994566666666667</v>
       </c>
       <c r="N10">
-        <v>0.110609</v>
+        <v>0.059837</v>
       </c>
       <c r="O10">
-        <v>0.01782545528970857</v>
+        <v>0.01079376578266031</v>
       </c>
       <c r="P10">
-        <v>0.01782545528970857</v>
+        <v>0.01079376578266031</v>
       </c>
       <c r="Q10">
-        <v>0.05092120051877778</v>
+        <v>0.03132360573111111</v>
       </c>
       <c r="R10">
-        <v>0.458290804669</v>
+        <v>0.28191245158</v>
       </c>
       <c r="S10">
-        <v>0.0002183811571579693</v>
+        <v>0.0001376855832185592</v>
       </c>
       <c r="T10">
-        <v>0.0002183811571579693</v>
+        <v>0.0001376855832185592</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.381113666666667</v>
+        <v>101.3157653333333</v>
       </c>
       <c r="H11">
-        <v>4.143341</v>
+        <v>303.947296</v>
       </c>
       <c r="I11">
-        <v>0.01225108439637166</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="J11">
-        <v>0.01225108439637166</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>5.313203</v>
       </c>
       <c r="O11">
-        <v>0.8562618098133555</v>
+        <v>0.9584282089297276</v>
       </c>
       <c r="P11">
-        <v>0.8562618098133555</v>
+        <v>0.9584282089297276</v>
       </c>
       <c r="Q11">
-        <v>2.446045759024778</v>
+        <v>179.4370761054542</v>
       </c>
       <c r="R11">
-        <v>22.014411831223</v>
+        <v>1614.933684949088</v>
       </c>
       <c r="S11">
-        <v>0.01049013569741336</v>
+        <v>0.7887309873165134</v>
       </c>
       <c r="T11">
-        <v>0.01049013569741336</v>
+        <v>0.7887309873165134</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.381113666666667</v>
+        <v>101.3157653333333</v>
       </c>
       <c r="H12">
-        <v>4.143341</v>
+        <v>303.947296</v>
       </c>
       <c r="I12">
-        <v>0.01225108439637166</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="J12">
-        <v>0.01225108439637166</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2222983333333333</v>
+        <v>0.05687433333333333</v>
       </c>
       <c r="N12">
-        <v>0.666895</v>
+        <v>0.170623</v>
       </c>
       <c r="O12">
-        <v>0.1074750427671365</v>
+        <v>0.03077802528761218</v>
       </c>
       <c r="P12">
-        <v>0.1074750427671365</v>
+        <v>0.03077802528761218</v>
       </c>
       <c r="Q12">
-        <v>0.3070192662438889</v>
+        <v>5.762266609489777</v>
       </c>
       <c r="R12">
-        <v>2.763173396195</v>
+        <v>51.860399485408</v>
       </c>
       <c r="S12">
-        <v>0.001316685819443843</v>
+        <v>0.02532853483085541</v>
       </c>
       <c r="T12">
-        <v>0.001316685819443842</v>
+        <v>0.02532853483085541</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.381113666666667</v>
+        <v>101.3157653333333</v>
       </c>
       <c r="H13">
-        <v>4.143341</v>
+        <v>303.947296</v>
       </c>
       <c r="I13">
-        <v>0.01225108439637166</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="J13">
-        <v>0.01225108439637166</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,276 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.038136</v>
+        <v>0.01994566666666667</v>
       </c>
       <c r="N13">
-        <v>0.114408</v>
+        <v>0.059837</v>
       </c>
       <c r="O13">
-        <v>0.01843769212979936</v>
+        <v>0.01079376578266031</v>
       </c>
       <c r="P13">
-        <v>0.01843769212979936</v>
+        <v>0.01079376578266031</v>
       </c>
       <c r="Q13">
-        <v>0.052670150792</v>
+        <v>2.020810483416889</v>
       </c>
       <c r="R13">
-        <v>0.474031357128</v>
+        <v>18.187294350752</v>
       </c>
       <c r="S13">
-        <v>0.0002258817223564896</v>
+        <v>0.008882645004916661</v>
       </c>
       <c r="T13">
-        <v>0.0002258817223564896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>91.29211166666666</v>
-      </c>
-      <c r="H14">
-        <v>273.876335</v>
-      </c>
-      <c r="I14">
-        <v>0.8098010987398714</v>
-      </c>
-      <c r="J14">
-        <v>0.8098010987398714</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.03686966666666666</v>
-      </c>
-      <c r="N14">
-        <v>0.110609</v>
-      </c>
-      <c r="O14">
-        <v>0.01782545528970857</v>
-      </c>
-      <c r="P14">
-        <v>0.01782545528970857</v>
-      </c>
-      <c r="Q14">
-        <v>3.36590972644611</v>
-      </c>
-      <c r="R14">
-        <v>30.29318753801499</v>
-      </c>
-      <c r="S14">
-        <v>0.01443507327914445</v>
-      </c>
-      <c r="T14">
-        <v>0.01443507327914445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>91.29211166666666</v>
-      </c>
-      <c r="H15">
-        <v>273.876335</v>
-      </c>
-      <c r="I15">
-        <v>0.8098010987398714</v>
-      </c>
-      <c r="J15">
-        <v>0.8098010987398714</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.771067666666666</v>
-      </c>
-      <c r="N15">
-        <v>5.313203</v>
-      </c>
-      <c r="O15">
-        <v>0.8562618098133555</v>
-      </c>
-      <c r="P15">
-        <v>0.8562618098133555</v>
-      </c>
-      <c r="Q15">
-        <v>161.6845071945561</v>
-      </c>
-      <c r="R15">
-        <v>1455.160564751005</v>
-      </c>
-      <c r="S15">
-        <v>0.6934017543958461</v>
-      </c>
-      <c r="T15">
-        <v>0.6934017543958461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>91.29211166666666</v>
-      </c>
-      <c r="H16">
-        <v>273.876335</v>
-      </c>
-      <c r="I16">
-        <v>0.8098010987398714</v>
-      </c>
-      <c r="J16">
-        <v>0.8098010987398714</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.2222983333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.666895</v>
-      </c>
-      <c r="O16">
-        <v>0.1074750427671365</v>
-      </c>
-      <c r="P16">
-        <v>0.1074750427671365</v>
-      </c>
-      <c r="Q16">
-        <v>20.29408426998056</v>
-      </c>
-      <c r="R16">
-        <v>182.646758429825</v>
-      </c>
-      <c r="S16">
-        <v>0.08703340771994178</v>
-      </c>
-      <c r="T16">
-        <v>0.08703340771994178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>91.29211166666666</v>
-      </c>
-      <c r="H17">
-        <v>273.876335</v>
-      </c>
-      <c r="I17">
-        <v>0.8098010987398714</v>
-      </c>
-      <c r="J17">
-        <v>0.8098010987398714</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.038136</v>
-      </c>
-      <c r="N17">
-        <v>0.114408</v>
-      </c>
-      <c r="O17">
-        <v>0.01843769212979936</v>
-      </c>
-      <c r="P17">
-        <v>0.01843769212979936</v>
-      </c>
-      <c r="Q17">
-        <v>3.481515970519999</v>
-      </c>
-      <c r="R17">
-        <v>31.33364373468</v>
-      </c>
-      <c r="S17">
-        <v>0.01493086334493901</v>
-      </c>
-      <c r="T17">
-        <v>0.01493086334493901</v>
+        <v>0.008882645004916659</v>
       </c>
     </row>
   </sheetData>
